--- a/study01/report/motivation/scr-signedup-participants/perceived-choice/by-Type/ParametricAnalysis.xlsx
+++ b/study01/report/motivation/scr-signedup-participants/perceived-choice/by-Type/ParametricAnalysis.xlsx
@@ -9312,13 +9312,13 @@
         <v>1.444183470253538</v>
       </c>
       <c r="E6" t="n" s="34">
-        <v>10.328986097374061</v>
+        <v>10.32898609737406</v>
       </c>
       <c r="F6" t="n" s="35">
         <v>0.15572356378568222</v>
       </c>
       <c r="G6" t="n" s="36">
-        <v>0.0021741737933872528</v>
+        <v>0.002174173793387255</v>
       </c>
     </row>
     <row r="7">
@@ -9335,13 +9335,13 @@
         <v>1.444183470253538</v>
       </c>
       <c r="E7" t="n" s="34">
-        <v>0.19422002855333384</v>
+        <v>0.19422002855333845</v>
       </c>
       <c r="F7" t="n" s="35">
         <v>0.0034562278550116293</v>
       </c>
       <c r="G7" t="n" s="36">
-        <v>0.6611239276643018</v>
+        <v>0.661123927664298</v>
       </c>
     </row>
     <row r="8">
@@ -9358,13 +9358,13 @@
         <v>1.444183470253538</v>
       </c>
       <c r="E8" t="n" s="34">
-        <v>4.176854290311538E-4</v>
+        <v>4.1768542902968786E-4</v>
       </c>
       <c r="F8" t="n" s="35">
         <v>7.45861274421114E-6</v>
       </c>
       <c r="G8" t="n" s="36">
-        <v>0.9837671326256727</v>
+        <v>0.9837671326257011</v>
       </c>
     </row>
     <row r="9">
@@ -9408,10 +9408,10 @@
         <v>1.0</v>
       </c>
       <c r="D13" t="n" s="57">
-        <v>1096.1302913476363</v>
+        <v>1096.130291347636</v>
       </c>
       <c r="E13" t="n" s="58">
-        <v>1.834701428266835E-38</v>
+        <v>1.8347014282668608E-38</v>
       </c>
     </row>
     <row r="14">
@@ -9425,10 +9425,10 @@
         <v>1.0</v>
       </c>
       <c r="D14" t="n" s="57">
-        <v>10.328986097374061</v>
+        <v>10.32898609737406</v>
       </c>
       <c r="E14" t="n" s="58">
-        <v>0.0021741737933872528</v>
+        <v>0.002174173793387255</v>
       </c>
     </row>
     <row r="15">
@@ -9442,10 +9442,10 @@
         <v>1.0</v>
       </c>
       <c r="D15" t="n" s="57">
-        <v>0.19422002855333384</v>
+        <v>0.19422002855333845</v>
       </c>
       <c r="E15" t="n" s="58">
-        <v>0.6611239276643018</v>
+        <v>0.661123927664298</v>
       </c>
     </row>
     <row r="16">
@@ -9459,10 +9459,10 @@
         <v>1.0</v>
       </c>
       <c r="D16" t="n" s="57">
-        <v>4.176854290311538E-4</v>
+        <v>4.1768542902968786E-4</v>
       </c>
       <c r="E16" t="n" s="58">
-        <v>0.9837671326256727</v>
+        <v>0.9837671326257011</v>
       </c>
     </row>
     <row r="17">
